--- a/Curso_Ram&Irwin/Evaluaciones/Resultados.xlsx
+++ b/Curso_Ram&Irwin/Evaluaciones/Resultados.xlsx
@@ -1,31 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iwin\Dropbox\Carpetas compartidas\Ramsés\Curso UNAM FP -Modelos Psicométricos\2019-1\Evaluaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB5EE0A-8FF9-4339-AB33-81C4536CD6C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992518FD-DF07-4726-9BB9-8F0F81E7BEF3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1110" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2220" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluaciones contínuas" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Número Único</t>
   </si>
@@ -59,18 +54,28 @@
   <si>
     <t>Clase 10</t>
   </si>
+  <si>
+    <t>Clase 11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -80,8 +85,128 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -94,8 +219,181 @@
         <bgColor rgb="FF003300"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -103,21 +401,215 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="43">
+    <cellStyle name="20% - Énfasis1" xfId="18" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="22" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="30" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="34" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="38" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="19" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="23" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="31" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="35" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="39" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="20" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="24" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="28" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="32" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="36" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="40" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="17" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="21" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="29" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="33" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="37" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="41" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Notas 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="15" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="16" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -429,16 +921,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AML61"/>
+  <dimension ref="A1:AMM61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1026" width="16" style="1" customWidth="1"/>
+    <col min="1" max="1027" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,10 +962,13 @@
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -504,11 +999,14 @@
       <c r="J2" s="1">
         <v>2</v>
       </c>
-      <c r="K2" s="1">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K2" s="3">
+        <v>2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -539,11 +1037,14 @@
       <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="K3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -574,11 +1075,14 @@
       <c r="J4" s="1">
         <v>2</v>
       </c>
-      <c r="K4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="3">
+        <v>2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -609,11 +1113,14 @@
       <c r="J5" s="1">
         <v>1</v>
       </c>
-      <c r="K5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -635,11 +1142,14 @@
       <c r="J6" s="1">
         <v>1</v>
       </c>
-      <c r="K6" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -667,11 +1177,14 @@
       <c r="J7" s="1">
         <v>1</v>
       </c>
-      <c r="K7" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -702,11 +1215,14 @@
       <c r="J8" s="1">
         <v>1</v>
       </c>
-      <c r="K8" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -734,11 +1250,14 @@
       <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="K9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="3">
+        <v>2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -769,11 +1288,14 @@
       <c r="J10" s="1">
         <v>2</v>
       </c>
-      <c r="K10" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="3">
+        <v>2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -804,11 +1326,14 @@
       <c r="J11" s="1">
         <v>0</v>
       </c>
-      <c r="K11" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="3">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -839,11 +1364,14 @@
       <c r="J12" s="1">
         <v>2</v>
       </c>
-      <c r="K12" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -871,11 +1399,12 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -903,11 +1432,14 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="K14" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>34</v>
       </c>
@@ -935,16 +1467,19 @@
       <c r="J15" s="1">
         <v>2</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="3"/>
+      <c r="L15" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37</v>
       </c>
@@ -975,11 +1510,14 @@
       <c r="J17" s="1">
         <v>1</v>
       </c>
-      <c r="K17" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="3">
+        <v>2</v>
+      </c>
+      <c r="L17" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -998,11 +1536,14 @@
       <c r="I18" s="1">
         <v>0</v>
       </c>
-      <c r="K18" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39</v>
       </c>
@@ -1024,11 +1565,14 @@
       <c r="J19" s="1">
         <v>0</v>
       </c>
-      <c r="K19" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42</v>
       </c>
@@ -1059,27 +1603,33 @@
       <c r="J20" s="1">
         <v>1</v>
       </c>
-      <c r="K20" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="3">
+        <v>2</v>
+      </c>
+      <c r="L20" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
-      <c r="K22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="3"/>
+      <c r="L22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>48</v>
       </c>
@@ -1104,11 +1654,14 @@
       <c r="J23" s="1">
         <v>0</v>
       </c>
-      <c r="K23" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="3">
+        <v>2</v>
+      </c>
+      <c r="L23" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>50</v>
       </c>
@@ -1133,11 +1686,14 @@
       <c r="J24" s="1">
         <v>1</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>51</v>
       </c>
@@ -1168,11 +1724,12 @@
       <c r="J25" s="1">
         <v>1</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="3"/>
+      <c r="L25" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>53</v>
       </c>
@@ -1203,11 +1760,14 @@
       <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="K26" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K26" s="3">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>54</v>
       </c>
@@ -1238,11 +1798,12 @@
       <c r="J27" s="1">
         <v>2</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="3"/>
+      <c r="L27" s="3">
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>56</v>
       </c>
@@ -1267,11 +1828,14 @@
       <c r="J28" s="1">
         <v>1</v>
       </c>
-      <c r="K28" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="3">
+        <v>2</v>
+      </c>
+      <c r="L28" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>58</v>
       </c>
@@ -1281,11 +1845,14 @@
       <c r="J29" s="1">
         <v>1</v>
       </c>
-      <c r="K29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>60</v>
       </c>
@@ -1316,11 +1883,14 @@
       <c r="J30" s="1">
         <v>1</v>
       </c>
-      <c r="K30" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K30" s="3">
+        <v>2</v>
+      </c>
+      <c r="L30" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>61</v>
       </c>
@@ -1351,11 +1921,14 @@
       <c r="J31" s="1">
         <v>1</v>
       </c>
-      <c r="K31" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K31" s="3">
+        <v>2</v>
+      </c>
+      <c r="L31" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>63</v>
       </c>
@@ -1383,11 +1956,14 @@
       <c r="J32" s="1">
         <v>1</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>64</v>
       </c>
@@ -1418,11 +1994,12 @@
       <c r="J33" s="1">
         <v>1</v>
       </c>
-      <c r="K33" s="1">
+      <c r="K33" s="3"/>
+      <c r="L33" s="3">
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>65</v>
       </c>
@@ -1453,22 +2030,26 @@
       <c r="J34" s="1">
         <v>1</v>
       </c>
-      <c r="K34" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K34" s="3">
+        <v>2</v>
+      </c>
+      <c r="L34" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>66</v>
       </c>
       <c r="C35" s="1">
         <v>2</v>
       </c>
-      <c r="K35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K35" s="3"/>
+      <c r="L35" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>67</v>
       </c>
@@ -1496,11 +2077,14 @@
       <c r="J36" s="1">
         <v>1</v>
       </c>
-      <c r="K36" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K36" s="3">
+        <v>1</v>
+      </c>
+      <c r="L36" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>68</v>
       </c>
@@ -1528,11 +2112,14 @@
       <c r="J37" s="1">
         <v>2</v>
       </c>
-      <c r="K37" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K37" s="3">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>70</v>
       </c>
@@ -1560,11 +2147,14 @@
       <c r="J38" s="1">
         <v>1</v>
       </c>
-      <c r="K38" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K38" s="3">
+        <v>1</v>
+      </c>
+      <c r="L38" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>71</v>
       </c>
@@ -1592,11 +2182,14 @@
       <c r="J39" s="1">
         <v>0</v>
       </c>
-      <c r="K39" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K39" s="3">
+        <v>1</v>
+      </c>
+      <c r="L39" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>72</v>
       </c>
@@ -1618,11 +2211,14 @@
       <c r="J40" s="1">
         <v>1</v>
       </c>
-      <c r="K40" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K40" s="3">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>73</v>
       </c>
@@ -1650,11 +2246,14 @@
       <c r="J41" s="1">
         <v>1</v>
       </c>
-      <c r="K41" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K41" s="3">
+        <v>2</v>
+      </c>
+      <c r="L41" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>75</v>
       </c>
@@ -1682,11 +2281,14 @@
       <c r="J42" s="1">
         <v>2</v>
       </c>
-      <c r="K42" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K42" s="3">
+        <v>1</v>
+      </c>
+      <c r="L42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>76</v>
       </c>
@@ -1717,11 +2319,14 @@
       <c r="J43" s="1">
         <v>0</v>
       </c>
-      <c r="K43" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K43" s="3">
+        <v>2</v>
+      </c>
+      <c r="L43" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>77</v>
       </c>
@@ -1749,11 +2354,14 @@
       <c r="J44" s="1">
         <v>1</v>
       </c>
-      <c r="K44" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K44" s="3">
+        <v>1</v>
+      </c>
+      <c r="L44" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>78</v>
       </c>
@@ -1784,11 +2392,14 @@
       <c r="J45" s="1">
         <v>1</v>
       </c>
-      <c r="K45" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K45" s="3">
+        <v>2</v>
+      </c>
+      <c r="L45" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>79</v>
       </c>
@@ -1804,11 +2415,14 @@
       <c r="G46" s="1">
         <v>1</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>80</v>
       </c>
@@ -1839,11 +2453,14 @@
       <c r="J47" s="1">
         <v>0</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>81</v>
       </c>
@@ -1871,11 +2488,14 @@
       <c r="J48" s="1">
         <v>1</v>
       </c>
-      <c r="K48" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K48" s="3">
+        <v>2</v>
+      </c>
+      <c r="L48" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>83</v>
       </c>
@@ -1888,11 +2508,12 @@
       <c r="G49" s="1">
         <v>2</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="3"/>
+      <c r="L49" s="3">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>85</v>
       </c>
@@ -1917,11 +2538,14 @@
       <c r="J50" s="1">
         <v>1</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>86</v>
       </c>
@@ -1952,11 +2576,14 @@
       <c r="J51" s="1">
         <v>1</v>
       </c>
-      <c r="K51" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K51" s="3">
+        <v>1</v>
+      </c>
+      <c r="L51" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>87</v>
       </c>
@@ -1987,38 +2614,45 @@
       <c r="J52" s="1">
         <v>1</v>
       </c>
-      <c r="K52" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K52" s="3">
+        <v>2</v>
+      </c>
+      <c r="L52" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K53" s="3"/>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>90</v>
       </c>
       <c r="B54" s="1">
         <v>0</v>
       </c>
-      <c r="K54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K54" s="3"/>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>91</v>
       </c>
       <c r="B55" s="1">
         <v>1</v>
       </c>
-      <c r="K55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K55" s="3"/>
+      <c r="L55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>92</v>
       </c>
@@ -2046,11 +2680,12 @@
       <c r="J56" s="1">
         <v>0</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="3"/>
+      <c r="L56" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>93</v>
       </c>
@@ -2078,11 +2713,14 @@
       <c r="J57" s="1">
         <v>1</v>
       </c>
-      <c r="K57" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K57" s="3">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>95</v>
       </c>
@@ -2104,11 +2742,12 @@
       <c r="J58" s="1">
         <v>0</v>
       </c>
-      <c r="K58" s="1">
+      <c r="K58" s="3"/>
+      <c r="L58" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>97</v>
       </c>
@@ -2136,11 +2775,12 @@
       <c r="I59" s="1">
         <v>0</v>
       </c>
-      <c r="K59" s="1">
+      <c r="K59" s="3"/>
+      <c r="L59" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>98</v>
       </c>
@@ -2171,11 +2811,14 @@
       <c r="J60" s="1">
         <v>1</v>
       </c>
-      <c r="K60" s="1">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>99</v>
       </c>
@@ -2203,8 +2846,11 @@
       <c r="J61" s="1">
         <v>1</v>
       </c>
-      <c r="K61" s="1">
-        <v>10</v>
+      <c r="K61" s="3">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Curso_Ram&Irwin/Evaluaciones/Resultados.xlsx
+++ b/Curso_Ram&Irwin/Evaluaciones/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iwin\Dropbox\Carpetas compartidas\Ramsés\Curso UNAM FP -Modelos Psicométricos\2019-1\Evaluaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{992518FD-DF07-4726-9BB9-8F0F81E7BEF3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFF86F43-3B14-428A-8842-2E62F8B4B094}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evaluaciones contínuas" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Número Único</t>
   </si>
@@ -56,6 +56,15 @@
   </si>
   <si>
     <t>Clase 11</t>
+  </si>
+  <si>
+    <t>Clase 12</t>
+  </si>
+  <si>
+    <t>Clase_13</t>
+  </si>
+  <si>
+    <t>Clase_14</t>
   </si>
 </sst>
 </file>
@@ -921,16 +930,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMM61"/>
+  <dimension ref="A1:AMP61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1027" width="16" style="1" customWidth="1"/>
+    <col min="1" max="15" width="13.42578125" style="1" customWidth="1"/>
+    <col min="16" max="1030" width="16" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -965,10 +977,19 @@
         <v>11</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -1002,11 +1023,20 @@
       <c r="K2" s="3">
         <v>2</v>
       </c>
-      <c r="L2" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1">
+        <v>2</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1</v>
+      </c>
+      <c r="O2" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -1040,11 +1070,20 @@
       <c r="K3" s="3">
         <v>1</v>
       </c>
-      <c r="L3" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>2</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>13</v>
       </c>
@@ -1078,11 +1117,20 @@
       <c r="K4" s="3">
         <v>2</v>
       </c>
-      <c r="L4" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>14</v>
       </c>
@@ -1116,11 +1164,17 @@
       <c r="K5" s="3">
         <v>1</v>
       </c>
-      <c r="L5" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>15</v>
       </c>
@@ -1145,11 +1199,17 @@
       <c r="K6" s="3">
         <v>1</v>
       </c>
-      <c r="L6" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>16</v>
       </c>
@@ -1180,11 +1240,20 @@
       <c r="K7" s="3">
         <v>1</v>
       </c>
-      <c r="L7" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>19</v>
       </c>
@@ -1218,11 +1287,20 @@
       <c r="K8" s="3">
         <v>1</v>
       </c>
-      <c r="L8" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>0</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>20</v>
       </c>
@@ -1253,11 +1331,17 @@
       <c r="K9" s="3">
         <v>2</v>
       </c>
-      <c r="L9" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>21</v>
       </c>
@@ -1291,11 +1375,20 @@
       <c r="K10" s="3">
         <v>2</v>
       </c>
-      <c r="L10" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>22</v>
       </c>
@@ -1329,11 +1422,20 @@
       <c r="K11" s="3">
         <v>2</v>
       </c>
-      <c r="L11" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>2</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>23</v>
       </c>
@@ -1367,11 +1469,20 @@
       <c r="K12" s="3">
         <v>1</v>
       </c>
-      <c r="L12" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>24</v>
       </c>
@@ -1400,11 +1511,11 @@
         <v>1</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" s="3">
+      <c r="O13" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>33</v>
       </c>
@@ -1435,11 +1546,17 @@
       <c r="K14" s="3">
         <v>1</v>
       </c>
-      <c r="L14" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>2</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1</v>
+      </c>
+      <c r="O14" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>34</v>
       </c>
@@ -1468,18 +1585,20 @@
         <v>2</v>
       </c>
       <c r="K15" s="3"/>
-      <c r="L15" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>1</v>
+      </c>
+      <c r="O15" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>35</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>37</v>
       </c>
@@ -1513,11 +1632,20 @@
       <c r="K17" s="3">
         <v>2</v>
       </c>
-      <c r="L17" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>38</v>
       </c>
@@ -1539,11 +1667,14 @@
       <c r="K18" s="3">
         <v>1</v>
       </c>
-      <c r="L18" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>2</v>
+      </c>
+      <c r="O18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39</v>
       </c>
@@ -1568,11 +1699,11 @@
       <c r="K19" s="3">
         <v>1</v>
       </c>
-      <c r="L19" s="3">
+      <c r="O19" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>42</v>
       </c>
@@ -1606,18 +1737,26 @@
       <c r="K20" s="3">
         <v>2</v>
       </c>
-      <c r="L20" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>2</v>
+      </c>
+      <c r="M20" s="1">
+        <v>2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44</v>
       </c>
       <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>45</v>
       </c>
@@ -1625,11 +1764,11 @@
         <v>1</v>
       </c>
       <c r="K22" s="3"/>
-      <c r="L22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>48</v>
       </c>
@@ -1657,11 +1796,20 @@
       <c r="K23" s="3">
         <v>2</v>
       </c>
-      <c r="L23" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>2</v>
+      </c>
+      <c r="M23" s="1">
+        <v>0</v>
+      </c>
+      <c r="N23" s="1">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>50</v>
       </c>
@@ -1689,11 +1837,17 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>2</v>
+      </c>
+      <c r="N24" s="1">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>51</v>
       </c>
@@ -1725,11 +1879,20 @@
         <v>1</v>
       </c>
       <c r="K25" s="3"/>
-      <c r="L25" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1</v>
+      </c>
+      <c r="O25" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>53</v>
       </c>
@@ -1763,11 +1926,17 @@
       <c r="K26" s="3">
         <v>1</v>
       </c>
-      <c r="L26" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>54</v>
       </c>
@@ -1799,11 +1968,20 @@
         <v>2</v>
       </c>
       <c r="K27" s="3"/>
-      <c r="L27" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>2</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>56</v>
       </c>
@@ -1831,11 +2009,20 @@
       <c r="K28" s="3">
         <v>2</v>
       </c>
-      <c r="L28" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>2</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1</v>
+      </c>
+      <c r="O28" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>58</v>
       </c>
@@ -1848,11 +2035,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O29" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>60</v>
       </c>
@@ -1886,11 +2073,20 @@
       <c r="K30" s="3">
         <v>2</v>
       </c>
-      <c r="L30" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>2</v>
+      </c>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1</v>
+      </c>
+      <c r="O30" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>61</v>
       </c>
@@ -1924,11 +2120,20 @@
       <c r="K31" s="3">
         <v>2</v>
       </c>
-      <c r="L31" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>0</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>63</v>
       </c>
@@ -1959,11 +2164,17 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-      <c r="L32" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1</v>
+      </c>
+      <c r="O32" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>64</v>
       </c>
@@ -1995,11 +2206,20 @@
         <v>1</v>
       </c>
       <c r="K33" s="3"/>
-      <c r="L33" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>65</v>
       </c>
@@ -2033,11 +2253,20 @@
       <c r="K34" s="3">
         <v>2</v>
       </c>
-      <c r="L34" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>66</v>
       </c>
@@ -2045,11 +2274,11 @@
         <v>2</v>
       </c>
       <c r="K35" s="3"/>
-      <c r="L35" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>67</v>
       </c>
@@ -2080,11 +2309,20 @@
       <c r="K36" s="3">
         <v>1</v>
       </c>
-      <c r="L36" s="3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>68</v>
       </c>
@@ -2115,11 +2353,20 @@
       <c r="K37" s="3">
         <v>1</v>
       </c>
-      <c r="L37" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>0</v>
+      </c>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1</v>
+      </c>
+      <c r="O37" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>70</v>
       </c>
@@ -2150,11 +2397,17 @@
       <c r="K38" s="3">
         <v>1</v>
       </c>
-      <c r="L38" s="3">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>2</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>71</v>
       </c>
@@ -2185,11 +2438,20 @@
       <c r="K39" s="3">
         <v>1</v>
       </c>
-      <c r="L39" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>2</v>
+      </c>
+      <c r="M39" s="1">
+        <v>0</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1</v>
+      </c>
+      <c r="O39" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>72</v>
       </c>
@@ -2214,11 +2476,17 @@
       <c r="K40" s="3">
         <v>1</v>
       </c>
-      <c r="L40" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L40" s="1">
+        <v>0</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>73</v>
       </c>
@@ -2249,11 +2517,20 @@
       <c r="K41" s="3">
         <v>2</v>
       </c>
-      <c r="L41" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="1">
+        <v>2</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
+      </c>
+      <c r="O41" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>75</v>
       </c>
@@ -2284,11 +2561,17 @@
       <c r="K42" s="3">
         <v>1</v>
       </c>
-      <c r="L42" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0</v>
+      </c>
+      <c r="O42" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>76</v>
       </c>
@@ -2322,11 +2605,20 @@
       <c r="K43" s="3">
         <v>2</v>
       </c>
-      <c r="L43" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L43" s="1">
+        <v>0</v>
+      </c>
+      <c r="M43" s="1">
+        <v>0</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
+      </c>
+      <c r="O43" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>77</v>
       </c>
@@ -2357,11 +2649,20 @@
       <c r="K44" s="3">
         <v>1</v>
       </c>
-      <c r="L44" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L44" s="1">
+        <v>2</v>
+      </c>
+      <c r="M44" s="1">
+        <v>0</v>
+      </c>
+      <c r="N44" s="1">
+        <v>0</v>
+      </c>
+      <c r="O44" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>78</v>
       </c>
@@ -2395,11 +2696,20 @@
       <c r="K45" s="3">
         <v>2</v>
       </c>
-      <c r="L45" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1">
+        <v>0</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1</v>
+      </c>
+      <c r="O45" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>79</v>
       </c>
@@ -2418,11 +2728,20 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L46" s="1">
+        <v>2</v>
+      </c>
+      <c r="M46" s="1">
+        <v>2</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="O46" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>80</v>
       </c>
@@ -2456,11 +2775,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>0</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>81</v>
       </c>
@@ -2491,11 +2819,20 @@
       <c r="K48" s="3">
         <v>2</v>
       </c>
-      <c r="L48" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>83</v>
       </c>
@@ -2509,11 +2846,11 @@
         <v>2</v>
       </c>
       <c r="K49" s="3"/>
-      <c r="L49" s="3">
+      <c r="O49" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>85</v>
       </c>
@@ -2541,11 +2878,20 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L50" s="1">
+        <v>2</v>
+      </c>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>86</v>
       </c>
@@ -2579,11 +2925,17 @@
       <c r="K51" s="3">
         <v>1</v>
       </c>
-      <c r="L51" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0</v>
+      </c>
+      <c r="O51" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>87</v>
       </c>
@@ -2617,18 +2969,20 @@
       <c r="K52" s="3">
         <v>2</v>
       </c>
-      <c r="L52" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L52" s="1">
+        <v>2</v>
+      </c>
+      <c r="O52" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>88</v>
       </c>
       <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>90</v>
       </c>
@@ -2636,11 +2990,11 @@
         <v>0</v>
       </c>
       <c r="K54" s="3"/>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>91</v>
       </c>
@@ -2648,11 +3002,11 @@
         <v>1</v>
       </c>
       <c r="K55" s="3"/>
-      <c r="L55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>92</v>
       </c>
@@ -2681,11 +3035,20 @@
         <v>0</v>
       </c>
       <c r="K56" s="3"/>
-      <c r="L56" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L56" s="1">
+        <v>0</v>
+      </c>
+      <c r="M56" s="1">
+        <v>2</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1</v>
+      </c>
+      <c r="O56" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>93</v>
       </c>
@@ -2716,11 +3079,20 @@
       <c r="K57" s="3">
         <v>1</v>
       </c>
-      <c r="L57" s="3">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1">
+        <v>2</v>
+      </c>
+      <c r="N57" s="1">
+        <v>2</v>
+      </c>
+      <c r="O57" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>95</v>
       </c>
@@ -2743,11 +3115,11 @@
         <v>0</v>
       </c>
       <c r="K58" s="3"/>
-      <c r="L58" s="3">
+      <c r="O58" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>97</v>
       </c>
@@ -2776,11 +3148,11 @@
         <v>0</v>
       </c>
       <c r="K59" s="3"/>
-      <c r="L59" s="3">
+      <c r="O59" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>98</v>
       </c>
@@ -2814,11 +3186,20 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-      <c r="L60" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1">
+        <v>0</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0</v>
+      </c>
+      <c r="O60" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>99</v>
       </c>
@@ -2849,8 +3230,17 @@
       <c r="K61" s="3">
         <v>1</v>
       </c>
-      <c r="L61" s="3">
-        <v>11</v>
+      <c r="L61" s="1">
+        <v>2</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0</v>
+      </c>
+      <c r="O61" s="1">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
